--- a/biology/Zoologie/Hamataliwa/Hamataliwa.xlsx
+++ b/biology/Zoologie/Hamataliwa/Hamataliwa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamataliwa est un genre d'araignées aranéomorphes de la famille des Oxyopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamataliwa est un genre d'araignées aranéomorphes de la famille des Oxyopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Afrique subsaharienne, en Asie et en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Afrique subsaharienne, en Asie et en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les araignées  de ce genre mesurent de 3 à 9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les araignées  de ce genre mesurent de 3 à 9 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 05/01/2023)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 05/01/2023) :
 Hamataliwa albibarbis (Mello-Leitão, 1947)
 Hamataliwa argyrescens Mello-Leitão, 1929
 Hamataliwa aurita Zhang, Zhu &amp; Song, 2005
@@ -690,11 +708,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Keyserling en 1887 dans les Agelenidae.
-Oxyopeidon[4] a été placé en synonymie par Bryant en 1948[5].
-Megullia[6] a été placé en synonymie par Deeleman-Reinhold en 2009[2].
+Oxyopeidon a été placé en synonymie par Bryant en 1948.
+Megullia a été placé en synonymie par Deeleman-Reinhold en 2009.
 </t>
         </is>
       </c>
@@ -723,7 +743,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Keyserling, 1887 : « Neue Spinnen aus America. VII. » Verhandlungen der kaiserlich-königlichen zoologisch-botanischen Gesellschaft in Wien, vol. 37, p. 421-490.</t>
         </is>
